--- a/data/case1/20/Q1_5.xlsx
+++ b/data/case1/20/Q1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.2135291778885744</v>
+        <v>0.28018141678364827</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999295214934</v>
+        <v>-0.0059999999752911037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.052472191518493361</v>
+        <v>-0.0039999999768713934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998809689998</v>
+        <v>-0.0079999999582334169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999318706116</v>
+        <v>-0.0029999999744223516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999294064708</v>
+        <v>-0.0019999999706250549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998390201128</v>
+        <v>-0.0099999999391879868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.009999999840026863</v>
+        <v>-0.015458195843259581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999340201136</v>
+        <v>-0.0019999999694833015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.048634860017694237</v>
+        <v>-0.0019999999696036497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999266019373</v>
+        <v>-0.0029999999657217558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999195473031</v>
+        <v>0.028317199012787952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999129974313</v>
+        <v>-0.0034999999615905608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998604165512</v>
+        <v>-0.0079999999434399172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999993859611891</v>
+        <v>-0.00099999997020283615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999262911849</v>
+        <v>-0.0019999999659057188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999249407097</v>
+        <v>-0.001999999965319077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999021196331</v>
+        <v>-0.0039999999573980816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999517332796</v>
+        <v>-0.0039999999822626364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999477000614</v>
+        <v>-0.0039999999743987047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999947150279</v>
+        <v>-0.069390397512012036</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999470294867</v>
+        <v>-0.0039999999722963864</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999164533904</v>
+        <v>-0.0049999999717131871</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.025780525925517495</v>
+        <v>-0.019999999911212818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999973605604</v>
+        <v>-0.019999999910082167</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999921990792</v>
+        <v>-0.0024999999674122364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999186898769</v>
+        <v>-0.0024999999655230809</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999076061314</v>
+        <v>-0.0019999999600104346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.018773950590767363</v>
+        <v>-0.0069999999349983355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999923230126</v>
+        <v>-0.059999999726336739</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998263838847</v>
+        <v>-0.0069999999302261529</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997917166183</v>
+        <v>-0.0099999999182749377</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999859582104</v>
+        <v>-0.0039999999414721543</v>
       </c>
     </row>
   </sheetData>
